--- a/Code/Results/Cases/Case_2_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9964921045538869</v>
+        <v>1.020745528196649</v>
       </c>
       <c r="D2">
-        <v>1.013812291507557</v>
+        <v>1.025947322369441</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9731600084219157</v>
+        <v>1.019164524913674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038776105058813</v>
+        <v>1.030222605984031</v>
       </c>
       <c r="J2">
-        <v>1.018778244803541</v>
+        <v>1.025940902569356</v>
       </c>
       <c r="K2">
-        <v>1.025082495382113</v>
+        <v>1.028771403585333</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9850063791118416</v>
+        <v>1.022008583912765</v>
       </c>
       <c r="N2">
-        <v>1.010301079063676</v>
+        <v>1.012734953412092</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000125756255713</v>
+        <v>1.021496325061568</v>
       </c>
       <c r="D3">
-        <v>1.016295281265847</v>
+        <v>1.026479811865787</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9794473297690596</v>
+        <v>1.020551330542654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03961623191814</v>
+        <v>1.030347340266065</v>
       </c>
       <c r="J3">
-        <v>1.020612993615778</v>
+        <v>1.026330055782694</v>
       </c>
       <c r="K3">
-        <v>1.026723821549368</v>
+        <v>1.029112049596697</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9903501202908788</v>
+        <v>1.023199758582473</v>
       </c>
       <c r="N3">
-        <v>1.01091051843717</v>
+        <v>1.012863917257193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002429860684348</v>
+        <v>1.021982354899009</v>
       </c>
       <c r="D4">
-        <v>1.017872264095744</v>
+        <v>1.026824538590819</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9834217945493271</v>
+        <v>1.021448987420873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040139566388905</v>
+        <v>1.030426954316081</v>
       </c>
       <c r="J4">
-        <v>1.021771613949819</v>
+        <v>1.026581403887187</v>
       </c>
       <c r="K4">
-        <v>1.027759667770083</v>
+        <v>1.029331930714514</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9937245094708972</v>
+        <v>1.023970315791972</v>
       </c>
       <c r="N4">
-        <v>1.01129535989696</v>
+        <v>1.012947198624322</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003387597096013</v>
+        <v>1.02218673193511</v>
       </c>
       <c r="D5">
-        <v>1.018528328430115</v>
+        <v>1.026969501187289</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9850712403963082</v>
+        <v>1.021826437140035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040354821097727</v>
+        <v>1.030460160931685</v>
       </c>
       <c r="J5">
-        <v>1.02225205595582</v>
+        <v>1.026686959861647</v>
       </c>
       <c r="K5">
-        <v>1.028189033710307</v>
+        <v>1.029424238798991</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9951240269143565</v>
+        <v>1.02429420940559</v>
       </c>
       <c r="N5">
-        <v>1.011454936859613</v>
+        <v>1.012982169927577</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003547775925271</v>
+        <v>1.022221050642625</v>
       </c>
       <c r="D6">
-        <v>1.018638085720551</v>
+        <v>1.026993843321917</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.985346962833847</v>
+        <v>1.021889817072577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040390687293608</v>
+        <v>1.030465721026277</v>
       </c>
       <c r="J6">
-        <v>1.022332340435097</v>
+        <v>1.026704676660265</v>
       </c>
       <c r="K6">
-        <v>1.028260772945608</v>
+        <v>1.029439730091128</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9953579180580469</v>
+        <v>1.024348589781109</v>
       </c>
       <c r="N6">
-        <v>1.011481602751158</v>
+        <v>1.012988039400019</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002442700394636</v>
+        <v>1.021985085599588</v>
       </c>
       <c r="D7">
-        <v>1.01788105730378</v>
+        <v>1.026826475434659</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9834439173497861</v>
+        <v>1.021454030625294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040142461187388</v>
+        <v>1.03042739905895</v>
       </c>
       <c r="J7">
-        <v>1.021778059479218</v>
+        <v>1.026582814767327</v>
       </c>
       <c r="K7">
-        <v>1.027765428745366</v>
+        <v>1.029333164651166</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9937432837196714</v>
+        <v>1.023974643862623</v>
       </c>
       <c r="N7">
-        <v>1.011297500773283</v>
+        <v>1.012947666070779</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9977300974892668</v>
+        <v>1.020999218496318</v>
       </c>
       <c r="D8">
-        <v>1.014657701795923</v>
+        <v>1.026127243612881</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.975304924781789</v>
+        <v>1.019633141707946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039064292389607</v>
+        <v>1.030264987485298</v>
       </c>
       <c r="J8">
-        <v>1.01940435031787</v>
+        <v>1.026072513595983</v>
       </c>
       <c r="K8">
-        <v>1.025642719217331</v>
+        <v>1.028886637784334</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9868301334862971</v>
+        <v>1.022411192297806</v>
       </c>
       <c r="N8">
-        <v>1.010509050999105</v>
+        <v>1.012778571756249</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9890474381948572</v>
+        <v>1.019263684901566</v>
       </c>
       <c r="D9">
-        <v>1.008740612580923</v>
+        <v>1.024896470843216</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9601932104694177</v>
+        <v>1.016426685124377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037004218242976</v>
+        <v>1.02997041139306</v>
       </c>
       <c r="J9">
-        <v>1.01499297762725</v>
+        <v>1.025169802030601</v>
       </c>
       <c r="K9">
-        <v>1.021693453508878</v>
+        <v>1.028095700352109</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.973966923008192</v>
+        <v>1.019654464098354</v>
       </c>
       <c r="N9">
-        <v>1.009043745196941</v>
+        <v>1.012479338319264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9829781673661603</v>
+        <v>1.018107866192767</v>
       </c>
       <c r="D10">
-        <v>1.004621723654486</v>
+        <v>1.024076949560036</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9495233122797201</v>
+        <v>1.014290342073182</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03551579977094</v>
+        <v>1.02976841339557</v>
       </c>
       <c r="J10">
-        <v>1.011883800043262</v>
+        <v>1.024565680461182</v>
       </c>
       <c r="K10">
-        <v>1.018908029856609</v>
+        <v>1.027565695759985</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9648679392505963</v>
+        <v>1.017815343186879</v>
       </c>
       <c r="N10">
-        <v>1.008011060708526</v>
+        <v>1.01227901069907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.980277055587547</v>
+        <v>1.017607683260013</v>
       </c>
       <c r="D11">
-        <v>1.002793283649006</v>
+        <v>1.023722339706717</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9447423221411999</v>
+        <v>1.013365550065164</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034842204917179</v>
+        <v>1.029679619499024</v>
       </c>
       <c r="J11">
-        <v>1.010493989901485</v>
+        <v>1.024303547729594</v>
       </c>
       <c r="K11">
-        <v>1.017662714287042</v>
+        <v>1.027335563431817</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9607873871500869</v>
+        <v>1.017018642705555</v>
       </c>
       <c r="N11">
-        <v>1.007549488043165</v>
+        <v>1.012192070488255</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9792621656792433</v>
+        <v>1.017421938321139</v>
       </c>
       <c r="D12">
-        <v>1.002107033298293</v>
+        <v>1.023590660407152</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9429404203037155</v>
+        <v>1.013022076557896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03458746048921</v>
+        <v>1.029646438436448</v>
       </c>
       <c r="J12">
-        <v>1.009970878619368</v>
+        <v>1.024206098773263</v>
       </c>
       <c r="K12">
-        <v>1.017193976902688</v>
+        <v>1.027249987054767</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.959248999624231</v>
+        <v>1.016722657402938</v>
       </c>
       <c r="N12">
-        <v>1.007375764365402</v>
+        <v>1.012159747633088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9794803969881124</v>
+        <v>1.017461779175155</v>
       </c>
       <c r="D13">
-        <v>1.002254562679668</v>
+        <v>1.023618904297052</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9433281441890268</v>
+        <v>1.013095751243508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034642312414326</v>
+        <v>1.029653564888678</v>
       </c>
       <c r="J13">
-        <v>1.010083404534643</v>
+        <v>1.024227005570226</v>
       </c>
       <c r="K13">
-        <v>1.017294806717725</v>
+        <v>1.027268347765239</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9595800424287123</v>
+        <v>1.016786149801846</v>
       </c>
       <c r="N13">
-        <v>1.007413133495883</v>
+        <v>1.012166682321815</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9801934042529602</v>
+        <v>1.01759232859567</v>
       </c>
       <c r="D14">
-        <v>1.002736704574162</v>
+        <v>1.023711454260107</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9445939187924632</v>
+        <v>1.013337157735221</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034821241334628</v>
+        <v>1.029676880800548</v>
       </c>
       <c r="J14">
-        <v>1.010450891630105</v>
+        <v>1.024295494221471</v>
       </c>
       <c r="K14">
-        <v>1.017624095918449</v>
+        <v>1.027328491595429</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9606606959708799</v>
+        <v>1.016994177612051</v>
       </c>
       <c r="N14">
-        <v>1.007535175066402</v>
+        <v>1.01218939926929</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9806311588725117</v>
+        <v>1.017672770433491</v>
       </c>
       <c r="D15">
-        <v>1.003032818616217</v>
+        <v>1.023768482498723</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.945370296318939</v>
+        <v>1.013485900832936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034930878272832</v>
+        <v>1.029691220137772</v>
       </c>
       <c r="J15">
-        <v>1.010676391162435</v>
+        <v>1.024337681598283</v>
       </c>
       <c r="K15">
-        <v>1.017826155245198</v>
+        <v>1.027365535628655</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9613234665255578</v>
+        <v>1.017122343002792</v>
       </c>
       <c r="N15">
-        <v>1.007610064006714</v>
+        <v>1.012203392042246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9831558416260984</v>
+        <v>1.018141067976763</v>
       </c>
       <c r="D16">
-        <v>1.004742096449247</v>
+        <v>1.024100489189102</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9498370669920281</v>
+        <v>1.014351722628965</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035559876804492</v>
+        <v>1.029774278418679</v>
       </c>
       <c r="J16">
-        <v>1.011975092281216</v>
+        <v>1.024583065931237</v>
       </c>
       <c r="K16">
-        <v>1.018989827801078</v>
+        <v>1.027580955526523</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9651356593416088</v>
+        <v>1.017868209978912</v>
       </c>
       <c r="N16">
-        <v>1.008041380945781</v>
+        <v>1.012284776501441</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9847195357677645</v>
+        <v>1.01843489817674</v>
       </c>
       <c r="D17">
-        <v>1.005802022481207</v>
+        <v>1.024308815595911</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9525946304940466</v>
+        <v>1.014894896587076</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035946524895864</v>
+        <v>1.029826023558333</v>
       </c>
       <c r="J17">
-        <v>1.012777854144528</v>
+        <v>1.024736843762408</v>
       </c>
       <c r="K17">
-        <v>1.019709080300692</v>
+        <v>1.027715912727934</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9674882411445413</v>
+        <v>1.018335977190931</v>
       </c>
       <c r="N17">
-        <v>1.008308001250333</v>
+        <v>1.012335774222017</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9856246039092449</v>
+        <v>1.01860631267497</v>
       </c>
       <c r="D18">
-        <v>1.006415947943123</v>
+        <v>1.024430352732841</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9541876857272883</v>
+        <v>1.015211745951913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036169254640467</v>
+        <v>1.029856077519862</v>
       </c>
       <c r="J18">
-        <v>1.013241917066325</v>
+        <v>1.024826487234146</v>
       </c>
       <c r="K18">
-        <v>1.020124845212067</v>
+        <v>1.027794569487799</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.968847006485406</v>
+        <v>1.018608784409843</v>
       </c>
       <c r="N18">
-        <v>1.008462133544324</v>
+        <v>1.012365501305036</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9859320374505693</v>
+        <v>1.018664765358918</v>
       </c>
       <c r="D19">
-        <v>1.00662455912309</v>
+        <v>1.024471797764902</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9547283204629897</v>
+        <v>1.015319787773413</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036244730469545</v>
+        <v>1.029866303404158</v>
       </c>
       <c r="J19">
-        <v>1.013399452217717</v>
+        <v>1.024857044413479</v>
       </c>
       <c r="K19">
-        <v>1.02026598020854</v>
+        <v>1.027821378958869</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.969308072952349</v>
+        <v>1.018701799028713</v>
       </c>
       <c r="N19">
-        <v>1.008514457302362</v>
+        <v>1.012375634238772</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.984552495248902</v>
+        <v>1.018403370040639</v>
       </c>
       <c r="D20">
-        <v>1.00568875074459</v>
+        <v>1.02428646166588</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9523003742378033</v>
+        <v>1.014836616581352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035905331550621</v>
+        <v>1.029820485042124</v>
       </c>
       <c r="J20">
-        <v>1.012692159521185</v>
+        <v>1.024720350286388</v>
       </c>
       <c r="K20">
-        <v>1.019632302486687</v>
+        <v>1.027701439452849</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9672372339733822</v>
+        <v>1.018285793679337</v>
       </c>
       <c r="N20">
-        <v>1.008279539209084</v>
+        <v>1.012330304615497</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9799837659921987</v>
+        <v>1.017553883786825</v>
       </c>
       <c r="D21">
-        <v>1.002594924249031</v>
+        <v>1.023684199527173</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.944221914146969</v>
+        <v>1.013266068590138</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034768678021742</v>
+        <v>1.029670020337537</v>
       </c>
       <c r="J21">
-        <v>1.010342868436274</v>
+        <v>1.02427532825745</v>
       </c>
       <c r="K21">
-        <v>1.017527301201395</v>
+        <v>1.027310783352938</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9603431100630723</v>
+        <v>1.016932920155467</v>
       </c>
       <c r="N21">
-        <v>1.007499300594609</v>
+        <v>1.012182710504075</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770439144370606</v>
+        <v>1.017020040527721</v>
       </c>
       <c r="D22">
-        <v>1.000608527294784</v>
+        <v>1.023305757313445</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.938991005572298</v>
+        <v>1.012278805962439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034027649616064</v>
+        <v>1.029574265715734</v>
       </c>
       <c r="J22">
-        <v>1.008825817672756</v>
+        <v>1.023995055787664</v>
       </c>
       <c r="K22">
-        <v>1.016167938771892</v>
+        <v>1.02706461315248</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9558763413221698</v>
+        <v>1.016081993687135</v>
       </c>
       <c r="N22">
-        <v>1.006995509687074</v>
+        <v>1.012089742291297</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9786089775656761</v>
+        <v>1.017303015703812</v>
       </c>
       <c r="D23">
-        <v>1.001665576973637</v>
+        <v>1.023506355039991</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.941779056777209</v>
+        <v>1.012802154446236</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034423042675376</v>
+        <v>1.029625136075135</v>
       </c>
       <c r="J23">
-        <v>1.009633942433465</v>
+        <v>1.024143677840751</v>
       </c>
       <c r="K23">
-        <v>1.016892062196431</v>
+        <v>1.02719516446079</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9582573495452115</v>
+        <v>1.016533117302501</v>
       </c>
       <c r="N23">
-        <v>1.007263871332883</v>
+        <v>1.012139042537692</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9846279952831933</v>
+        <v>1.018417616160833</v>
       </c>
       <c r="D24">
-        <v>1.005739946666233</v>
+        <v>1.024296562371037</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9524333833802183</v>
+        <v>1.014862950728638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035923953676871</v>
+        <v>1.029822988055041</v>
       </c>
       <c r="J24">
-        <v>1.012730894108713</v>
+        <v>1.024727803140602</v>
       </c>
       <c r="K24">
-        <v>1.019667006684039</v>
+        <v>1.027707979492922</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9673506947768032</v>
+        <v>1.018308469550828</v>
       </c>
       <c r="N24">
-        <v>1.008292404245733</v>
+        <v>1.012332776154043</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9913395660436833</v>
+        <v>1.019712154693428</v>
       </c>
       <c r="D25">
-        <v>1.010299875395281</v>
+        <v>1.025214485570642</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9641987709603674</v>
+        <v>1.017255390155309</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03755650149329</v>
+        <v>1.030047557656502</v>
       </c>
       <c r="J25">
-        <v>1.016161945260448</v>
+        <v>1.025403585098715</v>
       </c>
       <c r="K25">
-        <v>1.022740375837956</v>
+        <v>1.02830065800082</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9773795009030484</v>
+        <v>1.020367363571796</v>
       </c>
       <c r="N25">
-        <v>1.009432029590469</v>
+        <v>1.012556846148521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_193/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020745528196649</v>
+        <v>0.9964921045538866</v>
       </c>
       <c r="D2">
-        <v>1.025947322369441</v>
+        <v>1.013812291507557</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.019164524913674</v>
+        <v>0.9731600084219154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030222605984031</v>
+        <v>1.038776105058813</v>
       </c>
       <c r="J2">
-        <v>1.025940902569356</v>
+        <v>1.018778244803541</v>
       </c>
       <c r="K2">
-        <v>1.028771403585333</v>
+        <v>1.025082495382113</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.022008583912765</v>
+        <v>0.9850063791118414</v>
       </c>
       <c r="N2">
-        <v>1.012734953412092</v>
+        <v>1.010301079063676</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021496325061568</v>
+        <v>1.000125756255713</v>
       </c>
       <c r="D3">
-        <v>1.026479811865787</v>
+        <v>1.016295281265847</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.020551330542654</v>
+        <v>0.9794473297690596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030347340266065</v>
+        <v>1.039616231918139</v>
       </c>
       <c r="J3">
-        <v>1.026330055782694</v>
+        <v>1.020612993615778</v>
       </c>
       <c r="K3">
-        <v>1.029112049596697</v>
+        <v>1.026723821549369</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.023199758582473</v>
+        <v>0.9903501202908788</v>
       </c>
       <c r="N3">
-        <v>1.012863917257193</v>
+        <v>1.01091051843717</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021982354899009</v>
+        <v>1.002429860684349</v>
       </c>
       <c r="D4">
-        <v>1.026824538590819</v>
+        <v>1.017872264095745</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.021448987420873</v>
+        <v>0.9834217945493275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030426954316081</v>
+        <v>1.040139566388905</v>
       </c>
       <c r="J4">
-        <v>1.026581403887187</v>
+        <v>1.02177161394982</v>
       </c>
       <c r="K4">
-        <v>1.029331930714514</v>
+        <v>1.027759667770083</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.023970315791972</v>
+        <v>0.9937245094708977</v>
       </c>
       <c r="N4">
-        <v>1.012947198624322</v>
+        <v>1.01129535989696</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02218673193511</v>
+        <v>1.003387597096013</v>
       </c>
       <c r="D5">
-        <v>1.026969501187289</v>
+        <v>1.018528328430115</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.021826437140035</v>
+        <v>0.9850712403963076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030460160931685</v>
+        <v>1.040354821097727</v>
       </c>
       <c r="J5">
-        <v>1.026686959861647</v>
+        <v>1.022252055955819</v>
       </c>
       <c r="K5">
-        <v>1.029424238798991</v>
+        <v>1.028189033710306</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.02429420940559</v>
+        <v>0.9951240269143561</v>
       </c>
       <c r="N5">
-        <v>1.012982169927577</v>
+        <v>1.011454936859613</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022221050642625</v>
+        <v>1.00354777592527</v>
       </c>
       <c r="D6">
-        <v>1.026993843321917</v>
+        <v>1.018638085720551</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.021889817072577</v>
+        <v>0.9853469628338463</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030465721026277</v>
+        <v>1.040390687293608</v>
       </c>
       <c r="J6">
-        <v>1.026704676660265</v>
+        <v>1.022332340435097</v>
       </c>
       <c r="K6">
-        <v>1.029439730091128</v>
+        <v>1.028260772945608</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.024348589781109</v>
+        <v>0.9953579180580461</v>
       </c>
       <c r="N6">
-        <v>1.012988039400019</v>
+        <v>1.011481602751158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021985085599588</v>
+        <v>1.002442700394636</v>
       </c>
       <c r="D7">
-        <v>1.026826475434659</v>
+        <v>1.017881057303779</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.021454030625294</v>
+        <v>0.9834439173497853</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03042739905895</v>
+        <v>1.040142461187387</v>
       </c>
       <c r="J7">
-        <v>1.026582814767327</v>
+        <v>1.021778059479218</v>
       </c>
       <c r="K7">
-        <v>1.029333164651166</v>
+        <v>1.027765428745365</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.023974643862623</v>
+        <v>0.9937432837196706</v>
       </c>
       <c r="N7">
-        <v>1.012947666070779</v>
+        <v>1.011297500773283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020999218496318</v>
+        <v>0.9977300974892677</v>
       </c>
       <c r="D8">
-        <v>1.026127243612881</v>
+        <v>1.014657701795924</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.019633141707946</v>
+        <v>0.9753049247817902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030264987485298</v>
+        <v>1.039064292389607</v>
       </c>
       <c r="J8">
-        <v>1.026072513595983</v>
+        <v>1.01940435031787</v>
       </c>
       <c r="K8">
-        <v>1.028886637784334</v>
+        <v>1.025642719217333</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.022411192297806</v>
+        <v>0.9868301334862983</v>
       </c>
       <c r="N8">
-        <v>1.012778571756249</v>
+        <v>1.010509050999106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019263684901566</v>
+        <v>0.9890474381948572</v>
       </c>
       <c r="D9">
-        <v>1.024896470843216</v>
+        <v>1.008740612580923</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.016426685124377</v>
+        <v>0.960193210469418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02997041139306</v>
+        <v>1.037004218242976</v>
       </c>
       <c r="J9">
-        <v>1.025169802030601</v>
+        <v>1.01499297762725</v>
       </c>
       <c r="K9">
-        <v>1.028095700352109</v>
+        <v>1.021693453508878</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.019654464098354</v>
+        <v>0.9739669230081922</v>
       </c>
       <c r="N9">
-        <v>1.012479338319264</v>
+        <v>1.009043745196941</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018107866192767</v>
+        <v>0.9829781673661604</v>
       </c>
       <c r="D10">
-        <v>1.024076949560036</v>
+        <v>1.004621723654486</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.014290342073182</v>
+        <v>0.9495233122797205</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02976841339557</v>
+        <v>1.03551579977094</v>
       </c>
       <c r="J10">
-        <v>1.024565680461182</v>
+        <v>1.011883800043262</v>
       </c>
       <c r="K10">
-        <v>1.027565695759985</v>
+        <v>1.018908029856609</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.017815343186879</v>
+        <v>0.9648679392505967</v>
       </c>
       <c r="N10">
-        <v>1.01227901069907</v>
+        <v>1.008011060708526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017607683260013</v>
+        <v>0.9802770555875473</v>
       </c>
       <c r="D11">
-        <v>1.023722339706717</v>
+        <v>1.002793283649007</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.013365550065164</v>
+        <v>0.9447423221412006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029679619499024</v>
+        <v>1.03484220491718</v>
       </c>
       <c r="J11">
-        <v>1.024303547729594</v>
+        <v>1.010493989901486</v>
       </c>
       <c r="K11">
-        <v>1.027335563431817</v>
+        <v>1.017662714287043</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.017018642705555</v>
+        <v>0.9607873871500872</v>
       </c>
       <c r="N11">
-        <v>1.012192070488255</v>
+        <v>1.007549488043165</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017421938321139</v>
+        <v>0.9792621656792428</v>
       </c>
       <c r="D12">
-        <v>1.023590660407152</v>
+        <v>1.002107033298293</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.013022076557896</v>
+        <v>0.9429404203037146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029646438436448</v>
+        <v>1.03458746048921</v>
       </c>
       <c r="J12">
-        <v>1.024206098773263</v>
+        <v>1.009970878619368</v>
       </c>
       <c r="K12">
-        <v>1.027249987054767</v>
+        <v>1.017193976902688</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.016722657402938</v>
+        <v>0.95924899962423</v>
       </c>
       <c r="N12">
-        <v>1.012159747633088</v>
+        <v>1.007375764365402</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017461779175155</v>
+        <v>0.979480396988112</v>
       </c>
       <c r="D13">
-        <v>1.023618904297052</v>
+        <v>1.002254562679668</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.013095751243508</v>
+        <v>0.9433281441890269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029653564888678</v>
+        <v>1.034642312414326</v>
       </c>
       <c r="J13">
-        <v>1.024227005570226</v>
+        <v>1.010083404534642</v>
       </c>
       <c r="K13">
-        <v>1.027268347765239</v>
+        <v>1.017294806717724</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.016786149801846</v>
+        <v>0.9595800424287124</v>
       </c>
       <c r="N13">
-        <v>1.012166682321815</v>
+        <v>1.007413133495883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01759232859567</v>
+        <v>0.9801934042529596</v>
       </c>
       <c r="D14">
-        <v>1.023711454260107</v>
+        <v>1.002736704574161</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.013337157735221</v>
+        <v>0.9445939187924626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029676880800548</v>
+        <v>1.034821241334628</v>
       </c>
       <c r="J14">
-        <v>1.024295494221471</v>
+        <v>1.010450891630105</v>
       </c>
       <c r="K14">
-        <v>1.027328491595429</v>
+        <v>1.017624095918449</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.016994177612051</v>
+        <v>0.9606606959708792</v>
       </c>
       <c r="N14">
-        <v>1.01218939926929</v>
+        <v>1.007535175066402</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017672770433491</v>
+        <v>0.9806311588725112</v>
       </c>
       <c r="D15">
-        <v>1.023768482498723</v>
+        <v>1.003032818616217</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.013485900832936</v>
+        <v>0.9453702963189381</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029691220137772</v>
+        <v>1.034930878272832</v>
       </c>
       <c r="J15">
-        <v>1.024337681598283</v>
+        <v>1.010676391162435</v>
       </c>
       <c r="K15">
-        <v>1.027365535628655</v>
+        <v>1.017826155245198</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.017122343002792</v>
+        <v>0.9613234665255567</v>
       </c>
       <c r="N15">
-        <v>1.012203392042246</v>
+        <v>1.007610064006714</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018141067976763</v>
+        <v>0.9831558416260976</v>
       </c>
       <c r="D16">
-        <v>1.024100489189102</v>
+        <v>1.004742096449246</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.014351722628965</v>
+        <v>0.9498370669920266</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029774278418679</v>
+        <v>1.035559876804492</v>
       </c>
       <c r="J16">
-        <v>1.024583065931237</v>
+        <v>1.011975092281215</v>
       </c>
       <c r="K16">
-        <v>1.027580955526523</v>
+        <v>1.018989827801077</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.017868209978912</v>
+        <v>0.9651356593416076</v>
       </c>
       <c r="N16">
-        <v>1.012284776501441</v>
+        <v>1.008041380945781</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01843489817674</v>
+        <v>0.9847195357677639</v>
       </c>
       <c r="D17">
-        <v>1.024308815595911</v>
+        <v>1.005802022481207</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.014894896587076</v>
+        <v>0.9525946304940462</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029826023558333</v>
+        <v>1.035946524895864</v>
       </c>
       <c r="J17">
-        <v>1.024736843762408</v>
+        <v>1.012777854144528</v>
       </c>
       <c r="K17">
-        <v>1.027715912727934</v>
+        <v>1.019709080300691</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.018335977190931</v>
+        <v>0.9674882411445408</v>
       </c>
       <c r="N17">
-        <v>1.012335774222017</v>
+        <v>1.008308001250333</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01860631267497</v>
+        <v>0.9856246039092451</v>
       </c>
       <c r="D18">
-        <v>1.024430352732841</v>
+        <v>1.006415947943123</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.015211745951913</v>
+        <v>0.9541876857272884</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029856077519862</v>
+        <v>1.036169254640468</v>
       </c>
       <c r="J18">
-        <v>1.024826487234146</v>
+        <v>1.013241917066326</v>
       </c>
       <c r="K18">
-        <v>1.027794569487799</v>
+        <v>1.020124845212068</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.018608784409843</v>
+        <v>0.968847006485406</v>
       </c>
       <c r="N18">
-        <v>1.012365501305036</v>
+        <v>1.008462133544324</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018664765358918</v>
+        <v>0.9859320374505692</v>
       </c>
       <c r="D19">
-        <v>1.024471797764902</v>
+        <v>1.00662455912309</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.015319787773413</v>
+        <v>0.9547283204629898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029866303404158</v>
+        <v>1.036244730469545</v>
       </c>
       <c r="J19">
-        <v>1.024857044413479</v>
+        <v>1.013399452217717</v>
       </c>
       <c r="K19">
-        <v>1.027821378958869</v>
+        <v>1.02026598020854</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.018701799028713</v>
+        <v>0.9693080729523491</v>
       </c>
       <c r="N19">
-        <v>1.012375634238772</v>
+        <v>1.008514457302362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018403370040639</v>
+        <v>0.9845524952489021</v>
       </c>
       <c r="D20">
-        <v>1.02428646166588</v>
+        <v>1.005688750744589</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.014836616581352</v>
+        <v>0.9523003742378036</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029820485042124</v>
+        <v>1.035905331550621</v>
       </c>
       <c r="J20">
-        <v>1.024720350286388</v>
+        <v>1.012692159521185</v>
       </c>
       <c r="K20">
-        <v>1.027701439452849</v>
+        <v>1.019632302486687</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.018285793679337</v>
+        <v>0.9672372339733827</v>
       </c>
       <c r="N20">
-        <v>1.012330304615497</v>
+        <v>1.008279539209084</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017553883786825</v>
+        <v>0.9799837659921991</v>
       </c>
       <c r="D21">
-        <v>1.023684199527173</v>
+        <v>1.002594924249031</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.013266068590138</v>
+        <v>0.9442219141469695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029670020337537</v>
+        <v>1.034768678021742</v>
       </c>
       <c r="J21">
-        <v>1.02427532825745</v>
+        <v>1.010342868436275</v>
       </c>
       <c r="K21">
-        <v>1.027310783352938</v>
+        <v>1.017527301201395</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.016932920155467</v>
+        <v>0.9603431100630727</v>
       </c>
       <c r="N21">
-        <v>1.012182710504075</v>
+        <v>1.007499300594609</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017020040527721</v>
+        <v>0.9770439144370603</v>
       </c>
       <c r="D22">
-        <v>1.023305757313445</v>
+        <v>1.000608527294784</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.012278805962439</v>
+        <v>0.9389910055722974</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029574265715734</v>
+        <v>1.034027649616064</v>
       </c>
       <c r="J22">
-        <v>1.023995055787664</v>
+        <v>1.008825817672756</v>
       </c>
       <c r="K22">
-        <v>1.02706461315248</v>
+        <v>1.016167938771892</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.016081993687135</v>
+        <v>0.9558763413221693</v>
       </c>
       <c r="N22">
-        <v>1.012089742291297</v>
+        <v>1.006995509687074</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017303015703812</v>
+        <v>0.9786089775656757</v>
       </c>
       <c r="D23">
-        <v>1.023506355039991</v>
+        <v>1.001665576973637</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.012802154446236</v>
+        <v>0.941779056777208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029625136075135</v>
+        <v>1.034423042675375</v>
       </c>
       <c r="J23">
-        <v>1.024143677840751</v>
+        <v>1.009633942433464</v>
       </c>
       <c r="K23">
-        <v>1.02719516446079</v>
+        <v>1.016892062196431</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.016533117302501</v>
+        <v>0.9582573495452106</v>
       </c>
       <c r="N23">
-        <v>1.012139042537692</v>
+        <v>1.007263871332883</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018417616160833</v>
+        <v>0.9846279952831929</v>
       </c>
       <c r="D24">
-        <v>1.024296562371037</v>
+        <v>1.005739946666233</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.014862950728638</v>
+        <v>0.952433383380218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029822988055041</v>
+        <v>1.035923953676871</v>
       </c>
       <c r="J24">
-        <v>1.024727803140602</v>
+        <v>1.012730894108713</v>
       </c>
       <c r="K24">
-        <v>1.027707979492922</v>
+        <v>1.019667006684039</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.018308469550828</v>
+        <v>0.9673506947768029</v>
       </c>
       <c r="N24">
-        <v>1.012332776154043</v>
+        <v>1.008292404245733</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019712154693428</v>
+        <v>0.9913395660436832</v>
       </c>
       <c r="D25">
-        <v>1.025214485570642</v>
+        <v>1.010299875395281</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.017255390155309</v>
+        <v>0.9641987709603673</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030047557656502</v>
+        <v>1.03755650149329</v>
       </c>
       <c r="J25">
-        <v>1.025403585098715</v>
+        <v>1.016161945260448</v>
       </c>
       <c r="K25">
-        <v>1.02830065800082</v>
+        <v>1.022740375837956</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.020367363571796</v>
+        <v>0.9773795009030481</v>
       </c>
       <c r="N25">
-        <v>1.012556846148521</v>
+        <v>1.009432029590469</v>
       </c>
     </row>
   </sheetData>
